--- a/Lista_nomes_new.xlsx
+++ b/Lista_nomes_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergio/Documents/WIP/vba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D360DB-07BE-D644-BB7A-6501F6C60B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0166DC-CC05-DF4B-83D3-2DE4583EA42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16400" xr2:uid="{8889B69D-180E-D040-A041-DC3178458682}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -43,16 +43,7 @@
     <t>idade</t>
   </si>
   <si>
-    <t>n1</t>
-  </si>
-  <si>
-    <t>n2</t>
-  </si>
-  <si>
-    <t>n10</t>
-  </si>
-  <si>
-    <t>n4</t>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -415,7 +406,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +429,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -446,7 +437,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -454,7 +445,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
